--- a/3_Implementation/src/Data.xlsx
+++ b/3_Implementation/src/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Semester_Marks" sheetId="1" r:id="rId1"/>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2301,7 +2301,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5727,7 +5727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
